--- a/חינוך/פעילויות חינוך.xlsx
+++ b/חינוך/פעילויות חינוך.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\חינוך\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\git_nat\Museum_of_Science\חינוך\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1E93AC-097E-4D14-96EE-943ABB474149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9970F5-56AB-44AC-9D06-E89B8A551990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>פעילות</t>
   </si>
@@ -123,20 +126,20 @@
     <t>קשה</t>
   </si>
   <si>
-    <t>פעילות לא רלוונתית אם יש לנו את הטיל מימן</t>
-  </si>
-  <si>
     <t>בינוני</t>
   </si>
   <si>
     <t xml:space="preserve">המחבש מסוכן בלי ציוד נדרש להוצאת המטבע. אם יש תקלה ברמת הגוף חימום התקלה הופכת לקשה </t>
-  </si>
-  <si>
-    <t>מיידי</t>
   </si>
   <si>
     <t>המוצג מאוד מלכלך ולא פשוט להפעלה צריך להחליף את הכוס מילוי,תבנית יותר רלוונטי למוזאון ומכסה למקומות שאנשים לא יגעו.(הרבה עבודה מכאני)
  אם יש תקלה בגוף חימום יהיה מאוד קשה לתקן.</t>
+  </si>
+  <si>
+    <t>Spinner</t>
+  </si>
+  <si>
+    <t>קוד מורס</t>
   </si>
 </sst>
 </file>
@@ -238,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C403DDFE-71A9-4FD2-9634-88F08DD4D821}" name="Table3" displayName="Table3" ref="A1:E26" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:E26" xr:uid="{C403DDFE-71A9-4FD2-9634-88F08DD4D821}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C403DDFE-71A9-4FD2-9634-88F08DD4D821}" name="Table3" displayName="Table3" ref="A1:E28" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:E28" xr:uid="{C403DDFE-71A9-4FD2-9634-88F08DD4D821}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{966FBBEF-476B-49F1-8741-9346870C1FF5}" name="פעילות" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{408C7F8A-C927-426C-A71D-1928DDEDBCAC}" name="רמת טיפול" dataDxfId="3"/>
@@ -514,22 +517,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.75" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -546,7 +549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -554,7 +557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -562,45 +565,39 @@
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -608,100 +605,128 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/חינוך/פעילויות חינוך.xlsx
+++ b/חינוך/פעילויות חינוך.xlsx
@@ -1,34 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\git_nat\Museum_of_Science\חינוך\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\חינוך\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9970F5-56AB-44AC-9D06-E89B8A551990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06C4B59-3DDA-48A3-94A5-1C382F23DE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="פעילויות" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>פעילות</t>
   </si>
@@ -139,7 +136,58 @@
     <t>Spinner</t>
   </si>
   <si>
-    <t>קוד מורס</t>
+    <t>דחוף ינואר</t>
+  </si>
+  <si>
+    <t>דחוף דצמבר</t>
+  </si>
+  <si>
+    <t>דחוף  עכשיו</t>
+  </si>
+  <si>
+    <t>סאמר</t>
+  </si>
+  <si>
+    <t>סאמר/נתן</t>
+  </si>
+  <si>
+    <t>סאמר/חינוך</t>
+  </si>
+  <si>
+    <t>שמוליק</t>
+  </si>
+  <si>
+    <t>נתן</t>
+  </si>
+  <si>
+    <t>דחוף סוף ינואר</t>
+  </si>
+  <si>
+    <t>דחוף אמצע ינואר</t>
+  </si>
+  <si>
+    <t>דחוף תחילת ינואר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לבדיקה </t>
+  </si>
+  <si>
+    <t>ברוך/עומר</t>
+  </si>
+  <si>
+    <t>סאמר/שמוליק</t>
+  </si>
+  <si>
+    <t>צריך סרטון הפעלה (סאמר מטפל)</t>
+  </si>
+  <si>
+    <t>צריך להכין חדשים</t>
+  </si>
+  <si>
+    <t>צריך לשפר את המערכת (חיישן אופטי + אלחוטי)</t>
+  </si>
+  <si>
+    <t>סידור כבלים סאמר</t>
   </si>
 </sst>
 </file>
@@ -241,8 +289,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C403DDFE-71A9-4FD2-9634-88F08DD4D821}" name="Table3" displayName="Table3" ref="A1:E28" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:E28" xr:uid="{C403DDFE-71A9-4FD2-9634-88F08DD4D821}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C403DDFE-71A9-4FD2-9634-88F08DD4D821}" name="Table3" displayName="Table3" ref="A1:E27" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:E27" xr:uid="{C403DDFE-71A9-4FD2-9634-88F08DD4D821}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{966FBBEF-476B-49F1-8741-9346870C1FF5}" name="פעילות" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{408C7F8A-C927-426C-A71D-1928DDEDBCAC}" name="רמת טיפול" dataDxfId="3"/>
@@ -517,22 +565,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.69921875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -549,110 +597,179 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -660,73 +777,107 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>36</v>
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/חינוך/פעילויות חינוך.xlsx
+++ b/חינוך/פעילויות חינוך.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\חינוך\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06C4B59-3DDA-48A3-94A5-1C382F23DE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7316549C-EA80-493E-85E7-54369EA7C6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>פעילות</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>בינוני</t>
-  </si>
-  <si>
-    <t xml:space="preserve">המחבש מסוכן בלי ציוד נדרש להוצאת המטבע. אם יש תקלה ברמת הגוף חימום התקלה הופכת לקשה </t>
   </si>
   <si>
     <t>המוצג מאוד מלכלך ולא פשוט להפעלה צריך להחליף את הכוס מילוי,תבנית יותר רלוונטי למוזאון ומכסה למקומות שאנשים לא יגעו.(הרבה עבודה מכאני)
@@ -188,6 +185,15 @@
   </si>
   <si>
     <t>סידור כבלים סאמר</t>
+  </si>
+  <si>
+    <t>נתן/שמוליק</t>
+  </si>
+  <si>
+    <t>סאמר/נתו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">המחבש מסוכן בלי ציוד נדרש להוצאת המטבע (לבקש מעומר לשפר). אם יש תקלה ברמת הגוף חימום התקלה הופכת לקשה </t>
   </si>
 </sst>
 </file>
@@ -568,7 +574,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -605,10 +611,13 @@
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -619,13 +628,13 @@
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -636,13 +645,13 @@
         <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -653,13 +662,13 @@
         <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -667,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -678,10 +687,13 @@
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -692,7 +704,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -703,10 +715,13 @@
         <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -714,16 +729,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -733,13 +751,13 @@
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,7 +768,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -758,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -766,7 +784,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -776,6 +794,9 @@
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -785,7 +806,10 @@
         <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -793,20 +817,26 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -817,7 +847,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,7 +855,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -833,7 +866,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -844,7 +880,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -852,7 +888,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -862,22 +901,25 @@
       <c r="B26" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="D26" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E26" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/חינוך/פעילויות חינוך.xlsx
+++ b/חינוך/פעילויות חינוך.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\חינוך\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7316549C-EA80-493E-85E7-54369EA7C6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93383853-9E98-4642-A635-A8481FD00F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/חינוך/פעילויות חינוך.xlsx
+++ b/חינוך/פעילויות חינוך.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\חינוך\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\git_nat\Museum_of_Science\חינוך\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93383853-9E98-4642-A635-A8481FD00F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5BDC4D-8105-4055-B8FE-AC2EB106F82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="פעילויות" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>פעילות</t>
   </si>
@@ -139,9 +142,6 @@
     <t>דחוף דצמבר</t>
   </si>
   <si>
-    <t>דחוף  עכשיו</t>
-  </si>
-  <si>
     <t>סאמר</t>
   </si>
   <si>
@@ -166,9 +166,6 @@
     <t>דחוף תחילת ינואר</t>
   </si>
   <si>
-    <t xml:space="preserve">לבדיקה </t>
-  </si>
-  <si>
     <t>ברוך/עומר</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>צריך לשפר את המערכת (חיישן אופטי + אלחוטי)</t>
   </si>
   <si>
-    <t>סידור כבלים סאמר</t>
-  </si>
-  <si>
     <t>נתן/שמוליק</t>
   </si>
   <si>
@@ -194,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">המחבש מסוכן בלי ציוד נדרש להוצאת המטבע (לבקש מעומר לשפר). אם יש תקלה ברמת הגוף חימום התקלה הופכת לקשה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">עומר מכין חדשים </t>
   </si>
 </sst>
 </file>
@@ -209,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +216,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -251,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,20 +579,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.75" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -603,7 +609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -614,30 +620,27 @@
         <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -645,16 +648,13 @@
         <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -662,41 +662,32 @@
         <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -704,10 +695,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -718,13 +709,13 @@
         <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -732,35 +723,35 @@
         <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -768,26 +759,26 @@
         <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -795,10 +786,10 @@
         <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -809,26 +800,26 @@
         <v>35</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -836,10 +827,10 @@
         <v>35</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -847,32 +838,35 @@
         <v>30</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -880,21 +874,21 @@
         <v>30</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -902,13 +896,13 @@
         <v>32</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -916,10 +910,10 @@
         <v>32</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/חינוך/פעילויות חינוך.xlsx
+++ b/חינוך/פעילויות חינוך.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\git_nat\Museum_of_Science\חינוך\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\חינוך\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5BDC4D-8105-4055-B8FE-AC2EB106F82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A58DB2-35E9-4FA9-9F52-F07F2CAA022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="פעילויות" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -108,9 +105,6 @@
     <t>תפוח לתוך עולם הפיזיקה</t>
   </si>
   <si>
-    <t>מחבש ליצירת מטבעות</t>
-  </si>
-  <si>
     <t>אחראיים</t>
   </si>
   <si>
@@ -187,10 +181,13 @@
     <t>סאמר/נתו</t>
   </si>
   <si>
-    <t xml:space="preserve">המחבש מסוכן בלי ציוד נדרש להוצאת המטבע (לבקש מעומר לשפר). אם יש תקלה ברמת הגוף חימום התקלה הופכת לקשה </t>
-  </si>
-  <si>
     <t xml:space="preserve">עומר מכין חדשים </t>
+  </si>
+  <si>
+    <t>המחבש מסוכן בלי ציוד נדרש להוצאת המטבע (לבקש מעומר לשפר). אם יש תקלה ברמת הגוף חימום התקלה הופכת לקשה.צריך סרטון הפעלה</t>
+  </si>
+  <si>
+    <t>מכבש ליצירת מטבעות</t>
   </si>
 </sst>
 </file>
@@ -579,341 +576,341 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.69921875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
